--- a/Grouped_Data.xlsx
+++ b/Grouped_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\SENIOR\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B629EA-5D2B-47DD-999E-90BB7F0591F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804557E-A52D-46CD-96A1-274E97CB8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="13171" windowHeight="13920" xr2:uid="{2DA075DF-A84F-45AE-9937-279A7F89A21B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19545" windowHeight="13920" xr2:uid="{2DA075DF-A84F-45AE-9937-279A7F89A21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Machine Group 1</t>
   </si>
@@ -90,39 +90,6 @@
   </si>
   <si>
     <t>Closure Type Grouped</t>
-  </si>
-  <si>
-    <t>FLEXO PRESS</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>2501-5000</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>IK</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DIECUTTER</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>251-500</t>
-  </si>
-  <si>
-    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -517,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE8B7A-EC1B-4D23-AC96-D49C7FD7FF7F}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -581,174 +548,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>2704</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>2.419354838709677</v>
-      </c>
-      <c r="H2">
-        <v>44</v>
-      </c>
-      <c r="I2">
-        <v>45.4375</v>
-      </c>
-      <c r="J2">
-        <v>40.5</v>
-      </c>
-      <c r="K2">
-        <v>46.5625</v>
-      </c>
-      <c r="L2">
-        <v>41.5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>2704</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>6.887052341597796</v>
-      </c>
-      <c r="H3">
-        <v>44</v>
-      </c>
-      <c r="I3">
-        <v>45.4375</v>
-      </c>
-      <c r="J3">
-        <v>40.5</v>
-      </c>
-      <c r="K3">
-        <v>46.5625</v>
-      </c>
-      <c r="L3">
-        <v>41.5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>8.592321755027422</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>23.25</v>
-      </c>
-      <c r="J4">
-        <v>25.75</v>
-      </c>
-      <c r="K4">
-        <v>24.375</v>
-      </c>
-      <c r="L4">
-        <v>26.75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grouped_Data.xlsx
+++ b/Grouped_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\SENIOR\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804557E-A52D-46CD-96A1-274E97CB8490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929EBE6-D521-4C71-8E7C-C9D5E6A63660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19545" windowHeight="13920" xr2:uid="{2DA075DF-A84F-45AE-9937-279A7F89A21B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Machine Group 1</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>Closure Type Grouped</t>
+  </si>
+  <si>
+    <t>FLEXO PRESS</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>2501-5000</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -484,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE8B7A-EC1B-4D23-AC96-D49C7FD7FF7F}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -548,6 +569,62 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2704</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>2.419354838709677</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>45.4375</v>
+      </c>
+      <c r="J2">
+        <v>40.5</v>
+      </c>
+      <c r="K2">
+        <v>46.5625</v>
+      </c>
+      <c r="L2">
+        <v>41.5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grouped_Data.xlsx
+++ b/Grouped_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\SENIOR\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929EBE6-D521-4C71-8E7C-C9D5E6A63660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AF0B13-988B-4324-912A-DE9D9AF89C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19545" windowHeight="13920" xr2:uid="{2DA075DF-A84F-45AE-9937-279A7F89A21B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Machine Group 1</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>DIECUTTER</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE8B7A-EC1B-4D23-AC96-D49C7FD7FF7F}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,6 +631,62 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2704</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>6.887052341597796</v>
+      </c>
+      <c r="H3">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>45.4375</v>
+      </c>
+      <c r="J3">
+        <v>40.5</v>
+      </c>
+      <c r="K3">
+        <v>46.5625</v>
+      </c>
+      <c r="L3">
+        <v>41.5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
